--- a/ADMON_DEL_PROYECTO/BITACORAS/2018/SEP/BITACORA_EQUIPO3_SEPTIMBRE.xlsx
+++ b/ADMON_DEL_PROYECTO/BITACORAS/2018/SEP/BITACORA_EQUIPO3_SEPTIMBRE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uriel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesus Alacio\Documents\GitHub\DINORIV\ADMON_DEL_PROYECTO\BITACORAS\2018\SEP\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F724CFA4-3057-4C1C-B383-3DB89C00F743}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6705" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="2" r:id="rId1"/>
@@ -31,6 +32,206 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Jesus Alacio</author>
+  </authors>
+  <commentList>
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{FF661456-85ED-4BA4-B8B7-C280374918BF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jesus Alacio:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+el nombre del documento es SEPTIEMBRE No SEPTIMBRE</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{F46D57E1-21EE-4D5D-AD9A-10D45E07519E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jesus Alacio:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+cheka por favor este tipo de faltas de ortografía
+progamación?
+Los errores ortograficos estan marcados con amarillo.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{4939B684-059C-492E-8B95-97A5CB880AE5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jesus Alacio:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+falta es apellido paterno de Ángeles es "Díaz"</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Jesus Alacio</author>
+  </authors>
+  <commentList>
+    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{347F6D40-B599-43C5-88B5-371A4E2388E4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jesus Alacio:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+reunión</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E17" authorId="0" shapeId="0" xr:uid="{5BA0360F-2601-4EB1-B2AC-1D90F03EB587}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jesus Alacio:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Aquí escribiste con mayuscula Versión y arriba con minuscula te comentado que esta mal mesclar,</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Jesus Alacio</author>
+  </authors>
+  <commentList>
+    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{4BD97F05-FCD5-4F31-80D1-1903B03B3C50}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jesus Alacio:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Cuidado con esos asentos como elaboración, redacción, envió y retroalimentación</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{E0F668B2-0A4A-4659-BEC0-9A9CB8DB8952}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jesus Alacio:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+No dejes el formato de hipervinculos se ve mal aparte si no vas a incluir los documentos para que dejas los vinculos</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -356,8 +557,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,8 +648,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -506,6 +733,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,7 +967,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -818,13 +1051,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -863,9 +1108,93 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -880,83 +1209,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1561,11 +1813,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K20"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:H19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1580,211 +1832,211 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="42"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
     </row>
     <row r="3" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="43"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="48"/>
     </row>
     <row r="4" spans="2:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="48"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C8" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="41">
         <v>3</v>
       </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
     </row>
     <row r="11" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
       <c r="I11" s="24"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C12" s="25"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C13" s="27"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C14" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C15" s="5">
         <v>1</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C16" s="5">
         <v>2</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C17" s="5">
         <v>3</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C18" s="5">
         <v>4</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C19" s="5">
         <v>5</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C20" s="5">
         <v>6</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -1808,15 +2060,16 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="65" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:W34"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="62" zoomScalePageLayoutView="57" workbookViewId="0">
-      <selection activeCell="D5" sqref="D1:D1048576"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="62" zoomScalePageLayoutView="57" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1833,90 +2086,90 @@
   <sheetData>
     <row r="1" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="64"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="60"/>
     </row>
     <row r="3" spans="2:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="67"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="63"/>
     </row>
     <row r="4" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="68"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="70"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="65"/>
+      <c r="T4" s="65"/>
+      <c r="U4" s="66"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="79" t="s">
+      <c r="C6" s="69"/>
+      <c r="D6" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
       <c r="O6" s="13" t="s">
         <v>31</v>
       </c>
@@ -1924,78 +2177,78 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="29"/>
       <c r="S6" s="1"/>
-      <c r="T6" s="52">
+      <c r="T6" s="77">
         <v>43374</v>
       </c>
-      <c r="U6" s="52"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
+      <c r="U6" s="77"/>
+      <c r="V6" s="77"/>
+      <c r="W6" s="77"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="80" t="s">
+      <c r="C7" s="69"/>
+      <c r="D7" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="80"/>
-      <c r="P7" s="80"/>
-      <c r="Q7" s="80"/>
-      <c r="R7" s="80"/>
-      <c r="S7" s="80"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="76"/>
+      <c r="P7" s="76"/>
+      <c r="Q7" s="76"/>
+      <c r="R7" s="76"/>
+      <c r="S7" s="76"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J8" s="31"/>
     </row>
     <row r="9" spans="2:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="74"/>
-      <c r="E9" s="71" t="s">
+      <c r="D9" s="70"/>
+      <c r="E9" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="60" t="s">
+      <c r="F9" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="75" t="s">
+      <c r="G9" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="76"/>
-      <c r="P9" s="76"/>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="76"/>
-      <c r="S9" s="76"/>
-      <c r="T9" s="76"/>
-      <c r="U9" s="78"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="72"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="74"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="72"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="61"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="57"/>
       <c r="G10" s="32">
         <v>1</v>
       </c>
@@ -2043,14 +2296,14 @@
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="53">
+      <c r="B11" s="84">
         <v>1</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="55"/>
-      <c r="E11" s="58" t="s">
+      <c r="D11" s="86"/>
+      <c r="E11" s="78" t="s">
         <v>56</v>
       </c>
       <c r="F11" s="33" t="s">
@@ -2073,10 +2326,10 @@
       <c r="U11" s="4"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="53"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="59"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="79"/>
       <c r="F12" s="33" t="s">
         <v>36</v>
       </c>
@@ -2097,14 +2350,14 @@
       <c r="U12" s="4"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="53">
+      <c r="B13" s="84">
         <v>2</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="58" t="s">
+      <c r="D13" s="81"/>
+      <c r="E13" s="78" t="s">
         <v>71</v>
       </c>
       <c r="F13" s="33" t="s">
@@ -2127,10 +2380,10 @@
       <c r="U13" s="4"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="53"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="59"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="79"/>
       <c r="F14" s="33" t="s">
         <v>36</v>
       </c>
@@ -2151,14 +2404,14 @@
       <c r="U14" s="4"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="53">
+      <c r="B15" s="84">
         <v>3</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="55"/>
-      <c r="E15" s="58" t="s">
+      <c r="D15" s="81"/>
+      <c r="E15" s="78" t="s">
         <v>68</v>
       </c>
       <c r="F15" s="33" t="s">
@@ -2181,10 +2434,10 @@
       <c r="U15" s="4"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="53"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="59"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="79"/>
       <c r="F16" s="33" t="s">
         <v>36</v>
       </c>
@@ -2205,14 +2458,14 @@
       <c r="U16" s="4"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B17" s="53">
+      <c r="B17" s="84">
         <v>4</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="55"/>
-      <c r="E17" s="58" t="s">
+      <c r="D17" s="81"/>
+      <c r="E17" s="78" t="s">
         <v>69</v>
       </c>
       <c r="F17" s="33" t="s">
@@ -2235,10 +2488,10 @@
       <c r="U17" s="4"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B18" s="53"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="59"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="79"/>
       <c r="F18" s="33" t="s">
         <v>36</v>
       </c>
@@ -2259,14 +2512,14 @@
       <c r="U18" s="4"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B19" s="53">
+      <c r="B19" s="84">
         <v>5</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="55"/>
-      <c r="E19" s="58" t="s">
+      <c r="D19" s="86"/>
+      <c r="E19" s="78" t="s">
         <v>70</v>
       </c>
       <c r="F19" s="33" t="s">
@@ -2289,10 +2542,10 @@
       <c r="U19" s="4"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B20" s="53"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="59"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="79"/>
       <c r="F20" s="33" t="s">
         <v>36</v>
       </c>
@@ -2313,12 +2566,12 @@
       <c r="U20" s="4"/>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B21" s="53">
+      <c r="B21" s="84">
         <v>6</v>
       </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="58"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="78"/>
       <c r="F21" s="33" t="s">
         <v>37</v>
       </c>
@@ -2339,10 +2592,10 @@
       <c r="U21" s="4"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B22" s="53"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="59"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="79"/>
       <c r="F22" s="33" t="s">
         <v>36</v>
       </c>
@@ -2363,12 +2616,12 @@
       <c r="U22" s="4"/>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B23" s="53">
+      <c r="B23" s="84">
         <v>7</v>
       </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="58"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="78"/>
       <c r="F23" s="33" t="s">
         <v>37</v>
       </c>
@@ -2389,10 +2642,10 @@
       <c r="U23" s="4"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B24" s="53"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="59"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="79"/>
       <c r="F24" s="33" t="s">
         <v>36</v>
       </c>
@@ -2413,12 +2666,12 @@
       <c r="U24" s="4"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B25" s="53">
+      <c r="B25" s="84">
         <v>8</v>
       </c>
-      <c r="C25" s="54"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="58"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="78"/>
       <c r="F25" s="33" t="s">
         <v>37</v>
       </c>
@@ -2439,10 +2692,10 @@
       <c r="U25" s="4"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B26" s="53"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="59"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="79"/>
       <c r="F26" s="33" t="s">
         <v>36</v>
       </c>
@@ -2463,12 +2716,12 @@
       <c r="U26" s="4"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B27" s="53">
+      <c r="B27" s="84">
         <v>9</v>
       </c>
-      <c r="C27" s="54"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="58"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="78"/>
       <c r="F27" s="33" t="s">
         <v>37</v>
       </c>
@@ -2489,10 +2742,10 @@
       <c r="U27" s="4"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B28" s="53"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="59"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="79"/>
       <c r="F28" s="33" t="s">
         <v>36</v>
       </c>
@@ -2513,12 +2766,12 @@
       <c r="U28" s="4"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B29" s="53">
+      <c r="B29" s="84">
         <v>10</v>
       </c>
-      <c r="C29" s="54"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="58"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="78"/>
       <c r="F29" s="33" t="s">
         <v>37</v>
       </c>
@@ -2539,10 +2792,10 @@
       <c r="U29" s="4"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B30" s="53"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="59"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="79"/>
       <c r="F30" s="33" t="s">
         <v>36</v>
       </c>
@@ -2563,12 +2816,12 @@
       <c r="U30" s="4"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B31" s="53">
+      <c r="B31" s="84">
         <v>12</v>
       </c>
-      <c r="C31" s="54"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="58"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="78"/>
       <c r="F31" s="33" t="s">
         <v>37</v>
       </c>
@@ -2589,10 +2842,10 @@
       <c r="U31" s="19"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B32" s="53"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="59"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="79"/>
       <c r="F32" s="33" t="s">
         <v>36</v>
       </c>
@@ -2613,12 +2866,12 @@
       <c r="U32" s="4"/>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B33" s="53">
+      <c r="B33" s="84">
         <v>13</v>
       </c>
-      <c r="C33" s="54"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="58"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="78"/>
       <c r="F33" s="33" t="s">
         <v>37</v>
       </c>
@@ -2639,10 +2892,10 @@
       <c r="U33" s="4"/>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B34" s="53"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="59"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="79"/>
       <c r="F34" s="33" t="s">
         <v>36</v>
       </c>
@@ -2664,22 +2917,22 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B2:U4"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="G9:U9"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="D7:S7"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C19:D20"/>
     <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C33:D34"/>
     <mergeCell ref="E33:E34"/>
@@ -2695,35 +2948,36 @@
     <mergeCell ref="E29:E30"/>
     <mergeCell ref="C31:D32"/>
     <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B2:U4"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="G9:U9"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="D7:S7"/>
     <mergeCell ref="T6:W6"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C19:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="55" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:K110"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2741,40 +2995,40 @@
   <sheetData>
     <row r="2" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="64"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="60"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="65"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="67"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="63"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="2:11" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="68"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="70"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
     </row>
@@ -2845,7 +3099,7 @@
       <c r="E10" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="39" t="s">
         <v>58</v>
       </c>
       <c r="G10" s="22" t="s">
@@ -2869,10 +3123,10 @@
       <c r="E11" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="81" t="s">
+      <c r="G11" s="37" t="s">
         <v>59</v>
       </c>
       <c r="H11" s="18" t="s">
@@ -2893,10 +3147,10 @@
       <c r="E12" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="82" t="s">
+      <c r="G12" s="38" t="s">
         <v>63</v>
       </c>
       <c r="H12" s="18" t="s">
@@ -2917,10 +3171,10 @@
       <c r="E13" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="81" t="s">
+      <c r="G13" s="37" t="s">
         <v>65</v>
       </c>
       <c r="H13" s="18" t="s">
@@ -3923,29 +4177,30 @@
     <mergeCell ref="B3:I5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Semanas del curso" error="Las actividades solo se pueden realizar dentro de las 15 semanas que dura el cuatrimestre." sqref="B9:B110">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Semanas del curso" error="Las actividades solo se pueden realizar dentro de las 15 semanas que dura el cuatrimestre." sqref="B9:B110" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>1</formula1>
       <formula2>15</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G11" r:id="rId1"/>
-    <hyperlink ref="G12" r:id="rId2"/>
-    <hyperlink ref="G13" r:id="rId3"/>
+    <hyperlink ref="G11" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="G12" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="G13" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
   <drawing r:id="rId5"/>
+  <legacyDrawing r:id="rId6"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
             <xm:f>Hoja3!$F$4:$F$5</xm:f>
           </x14:formula1>
           <xm:sqref>E9:E110</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
           <x14:formula1>
             <xm:f>Hoja3!$D$4:$D$12</xm:f>
           </x14:formula1>
@@ -3958,7 +4213,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/ADMON_DEL_PROYECTO/BITACORAS/2018/SEP/BITACORA_EQUIPO3_SEPTIMBRE.xlsx
+++ b/ADMON_DEL_PROYECTO/BITACORAS/2018/SEP/BITACORA_EQUIPO3_SEPTIMBRE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesus Alacio\Documents\GitHub\DINORIV\ADMON_DEL_PROYECTO\BITACORAS\2018\SEP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uriel\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F724CFA4-3057-4C1C-B383-3DB89C00F743}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6705"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="2" r:id="rId1"/>
@@ -32,206 +31,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Jesus Alacio</author>
-  </authors>
-  <commentList>
-    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{FF661456-85ED-4BA4-B8B7-C280374918BF}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jesus Alacio:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-el nombre del documento es SEPTIEMBRE No SEPTIMBRE</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{F46D57E1-21EE-4D5D-AD9A-10D45E07519E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jesus Alacio:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-cheka por favor este tipo de faltas de ortografía
-progamación?
-Los errores ortograficos estan marcados con amarillo.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{4939B684-059C-492E-8B95-97A5CB880AE5}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jesus Alacio:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-falta es apellido paterno de Ángeles es "Díaz"</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Jesus Alacio</author>
-  </authors>
-  <commentList>
-    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{347F6D40-B599-43C5-88B5-371A4E2388E4}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jesus Alacio:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-reunión</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E17" authorId="0" shapeId="0" xr:uid="{5BA0360F-2601-4EB1-B2AC-1D90F03EB587}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jesus Alacio:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Aquí escribiste con mayuscula Versión y arriba con minuscula te comentado que esta mal mesclar,</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Jesus Alacio</author>
-  </authors>
-  <commentList>
-    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{4BD97F05-FCD5-4F31-80D1-1903B03B3C50}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jesus Alacio:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Cuidado con esos asentos como elaboración, redacción, envió y retroalimentación</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{E0F668B2-0A4A-4659-BEC0-9A9CB8DB8952}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jesus Alacio:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-No dejes el formato de hipervinculos se ve mal aparte si no vas a incluir los documentos para que dejas los vinculos</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -497,9 +296,6 @@
     <t>Arturo Uriel Reyes García</t>
   </si>
   <si>
-    <t xml:space="preserve">María de los Angeles de la Trinidad </t>
-  </si>
-  <si>
     <t>Desarrollar un sistema de realidad virtual interactivo para un parque</t>
   </si>
   <si>
@@ -512,39 +308,21 @@
     <t>Irving Jesús Ramires Alacio</t>
   </si>
   <si>
-    <t>lluvia de ideas y Elaboracion de las Propuestas</t>
-  </si>
-  <si>
     <t>Primera Version de las Propuestas</t>
   </si>
   <si>
-    <t>Redaccion de Propuestas</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Propuestas</t>
   </si>
   <si>
-    <t>Envio de Propuestas</t>
-  </si>
-  <si>
     <t>Segunda Version de las Propuestas</t>
   </si>
   <si>
-    <t>Retroalimentacion y notificacion de Propuesta seleccionada</t>
-  </si>
-  <si>
     <t>Propuesta seleccionada</t>
   </si>
   <si>
     <t>Todo el Equipo</t>
   </si>
   <si>
-    <t>Reunion con el Equipo</t>
-  </si>
-  <si>
-    <t>Primera versión de las Propuestas</t>
-  </si>
-  <si>
     <t>Segunda Versión de las Propuestas</t>
   </si>
   <si>
@@ -552,13 +330,34 @@
   </si>
   <si>
     <t>Propuestas</t>
+  </si>
+  <si>
+    <t>María de los Angeles de la Trinidad Díaz</t>
+  </si>
+  <si>
+    <t>Reunión con el Equipo</t>
+  </si>
+  <si>
+    <t>Primera Versión de las Propuestas</t>
+  </si>
+  <si>
+    <t>lluvia de ideas y Elaboración de las Propuestas</t>
+  </si>
+  <si>
+    <t>Redacción de Propuestas</t>
+  </si>
+  <si>
+    <t>Envió de Propuestas</t>
+  </si>
+  <si>
+    <t>Retroalimentación y notificación de Propuesta seleccionada</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -641,38 +440,10 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="12">
@@ -738,7 +509,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,11 +734,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1051,27 +821,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1108,111 +870,113 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1813,11 +1577,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D15" sqref="D15:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1832,211 +1596,211 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="45"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="43"/>
     </row>
     <row r="3" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="48"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="46"/>
     </row>
     <row r="4" spans="2:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="49"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="49"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C8" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="40">
         <v>3</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
     </row>
     <row r="11" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
       <c r="I11" s="24"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C12" s="25"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C13" s="27"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C14" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C15" s="5">
         <v>1</v>
       </c>
-      <c r="D15" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
+      <c r="D15" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C16" s="5">
         <v>2</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C17" s="5">
         <v>3</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C18" s="5">
         <v>4</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C19" s="5">
         <v>5</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C20" s="5">
         <v>6</v>
       </c>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -2060,16 +1824,15 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="65" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W34"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="62" zoomScalePageLayoutView="57" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:D20"/>
+      <selection activeCell="E17" sqref="E17:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2086,90 +1849,90 @@
   <sheetData>
     <row r="1" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="60"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="57"/>
     </row>
     <row r="3" spans="2:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="61"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="63"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="60"/>
     </row>
     <row r="4" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="64"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
-      <c r="S4" s="65"/>
-      <c r="T4" s="65"/>
-      <c r="U4" s="66"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="63"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="75" t="s">
+      <c r="C6" s="66"/>
+      <c r="D6" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
       <c r="O6" s="13" t="s">
         <v>31</v>
       </c>
@@ -2177,78 +1940,78 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="29"/>
       <c r="S6" s="1"/>
-      <c r="T6" s="77">
+      <c r="T6" s="74">
         <v>43374</v>
       </c>
-      <c r="U6" s="77"/>
-      <c r="V6" s="77"/>
-      <c r="W6" s="77"/>
+      <c r="U6" s="74"/>
+      <c r="V6" s="74"/>
+      <c r="W6" s="74"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76"/>
-      <c r="P7" s="76"/>
-      <c r="Q7" s="76"/>
-      <c r="R7" s="76"/>
-      <c r="S7" s="76"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="73"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J8" s="31"/>
     </row>
     <row r="9" spans="2:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="70"/>
-      <c r="E9" s="67" t="s">
+      <c r="D9" s="67"/>
+      <c r="E9" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="56" t="s">
+      <c r="F9" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="71" t="s">
+      <c r="G9" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
-      <c r="N9" s="72"/>
-      <c r="O9" s="72"/>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="72"/>
-      <c r="R9" s="72"/>
-      <c r="S9" s="72"/>
-      <c r="T9" s="72"/>
-      <c r="U9" s="74"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="69"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="71"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="68"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="57"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="54"/>
       <c r="G10" s="32">
         <v>1</v>
       </c>
@@ -2296,15 +2059,15 @@
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="84">
+      <c r="B11" s="81">
         <v>1</v>
       </c>
-      <c r="C11" s="85" t="s">
+      <c r="C11" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="86"/>
-      <c r="E11" s="78" t="s">
-        <v>56</v>
+      <c r="D11" s="83"/>
+      <c r="E11" s="75" t="s">
+        <v>55</v>
       </c>
       <c r="F11" s="33" t="s">
         <v>37</v>
@@ -2326,10 +2089,10 @@
       <c r="U11" s="4"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="84"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="79"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="76"/>
       <c r="F12" s="33" t="s">
         <v>36</v>
       </c>
@@ -2350,15 +2113,15 @@
       <c r="U12" s="4"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="84">
+      <c r="B13" s="81">
         <v>2</v>
       </c>
-      <c r="C13" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="81"/>
-      <c r="E13" s="78" t="s">
-        <v>71</v>
+      <c r="C13" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="78"/>
+      <c r="E13" s="75" t="s">
+        <v>64</v>
       </c>
       <c r="F13" s="33" t="s">
         <v>37</v>
@@ -2380,10 +2143,10 @@
       <c r="U13" s="4"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="84"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="79"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="76"/>
       <c r="F14" s="33" t="s">
         <v>36</v>
       </c>
@@ -2404,15 +2167,15 @@
       <c r="U14" s="4"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="84">
+      <c r="B15" s="81">
         <v>3</v>
       </c>
-      <c r="C15" s="80" t="s">
+      <c r="C15" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="78"/>
+      <c r="E15" s="75" t="s">
         <v>67</v>
-      </c>
-      <c r="D15" s="81"/>
-      <c r="E15" s="78" t="s">
-        <v>68</v>
       </c>
       <c r="F15" s="33" t="s">
         <v>37</v>
@@ -2434,10 +2197,10 @@
       <c r="U15" s="4"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="84"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="79"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="76"/>
       <c r="F16" s="33" t="s">
         <v>36</v>
       </c>
@@ -2458,15 +2221,15 @@
       <c r="U16" s="4"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B17" s="84">
+      <c r="B17" s="81">
         <v>4</v>
       </c>
-      <c r="C17" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="81"/>
-      <c r="E17" s="78" t="s">
-        <v>69</v>
+      <c r="C17" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="78"/>
+      <c r="E17" s="75" t="s">
+        <v>62</v>
       </c>
       <c r="F17" s="33" t="s">
         <v>37</v>
@@ -2488,10 +2251,10 @@
       <c r="U17" s="4"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B18" s="84"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="79"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="76"/>
       <c r="F18" s="33" t="s">
         <v>36</v>
       </c>
@@ -2512,15 +2275,15 @@
       <c r="U18" s="4"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B19" s="84">
+      <c r="B19" s="81">
         <v>5</v>
       </c>
-      <c r="C19" s="85" t="s">
+      <c r="C19" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="86"/>
-      <c r="E19" s="78" t="s">
-        <v>70</v>
+      <c r="D19" s="83"/>
+      <c r="E19" s="75" t="s">
+        <v>63</v>
       </c>
       <c r="F19" s="33" t="s">
         <v>37</v>
@@ -2542,10 +2305,10 @@
       <c r="U19" s="4"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B20" s="84"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="79"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="76"/>
       <c r="F20" s="33" t="s">
         <v>36</v>
       </c>
@@ -2566,12 +2329,12 @@
       <c r="U20" s="4"/>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B21" s="84">
+      <c r="B21" s="81">
         <v>6</v>
       </c>
-      <c r="C21" s="85"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="78"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="75"/>
       <c r="F21" s="33" t="s">
         <v>37</v>
       </c>
@@ -2592,10 +2355,10 @@
       <c r="U21" s="4"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B22" s="84"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="79"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="76"/>
       <c r="F22" s="33" t="s">
         <v>36</v>
       </c>
@@ -2616,12 +2379,12 @@
       <c r="U22" s="4"/>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B23" s="84">
+      <c r="B23" s="81">
         <v>7</v>
       </c>
-      <c r="C23" s="85"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="78"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="75"/>
       <c r="F23" s="33" t="s">
         <v>37</v>
       </c>
@@ -2642,10 +2405,10 @@
       <c r="U23" s="4"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B24" s="84"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="79"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="76"/>
       <c r="F24" s="33" t="s">
         <v>36</v>
       </c>
@@ -2666,12 +2429,12 @@
       <c r="U24" s="4"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B25" s="84">
+      <c r="B25" s="81">
         <v>8</v>
       </c>
-      <c r="C25" s="85"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="78"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="75"/>
       <c r="F25" s="33" t="s">
         <v>37</v>
       </c>
@@ -2692,10 +2455,10 @@
       <c r="U25" s="4"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B26" s="84"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="79"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="76"/>
       <c r="F26" s="33" t="s">
         <v>36</v>
       </c>
@@ -2716,12 +2479,12 @@
       <c r="U26" s="4"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B27" s="84">
+      <c r="B27" s="81">
         <v>9</v>
       </c>
-      <c r="C27" s="85"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="78"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="75"/>
       <c r="F27" s="33" t="s">
         <v>37</v>
       </c>
@@ -2742,10 +2505,10 @@
       <c r="U27" s="4"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B28" s="84"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="79"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="76"/>
       <c r="F28" s="33" t="s">
         <v>36</v>
       </c>
@@ -2766,12 +2529,12 @@
       <c r="U28" s="4"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B29" s="84">
+      <c r="B29" s="81">
         <v>10</v>
       </c>
-      <c r="C29" s="85"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="78"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="75"/>
       <c r="F29" s="33" t="s">
         <v>37</v>
       </c>
@@ -2792,10 +2555,10 @@
       <c r="U29" s="4"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B30" s="84"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="79"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="76"/>
       <c r="F30" s="33" t="s">
         <v>36</v>
       </c>
@@ -2816,12 +2579,12 @@
       <c r="U30" s="4"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B31" s="84">
+      <c r="B31" s="81">
         <v>12</v>
       </c>
-      <c r="C31" s="85"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="78"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="75"/>
       <c r="F31" s="33" t="s">
         <v>37</v>
       </c>
@@ -2842,10 +2605,10 @@
       <c r="U31" s="19"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B32" s="84"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="79"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="76"/>
       <c r="F32" s="33" t="s">
         <v>36</v>
       </c>
@@ -2866,12 +2629,12 @@
       <c r="U32" s="4"/>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B33" s="84">
+      <c r="B33" s="81">
         <v>13</v>
       </c>
-      <c r="C33" s="85"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="78"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="75"/>
       <c r="F33" s="33" t="s">
         <v>37</v>
       </c>
@@ -2892,10 +2655,10 @@
       <c r="U33" s="4"/>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B34" s="84"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="79"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="76"/>
       <c r="F34" s="33" t="s">
         <v>36</v>
       </c>
@@ -2968,16 +2731,15 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="55" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K110"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2995,40 +2757,40 @@
   <sheetData>
     <row r="2" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="60"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="57"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="63"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="60"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="2:11" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="66"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63"/>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
     </row>
@@ -3076,13 +2838,13 @@
         <v>42</v>
       </c>
       <c r="F9" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="H9" s="18" t="s">
         <v>56</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>57</v>
       </c>
       <c r="I9" s="14"/>
     </row>
@@ -3099,11 +2861,11 @@
       <c r="E10" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="22" t="s">
         <v>58</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>61</v>
       </c>
       <c r="H10" s="18" t="s">
         <v>52</v>
@@ -3123,14 +2885,14 @@
       <c r="E11" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>59</v>
+      <c r="F11" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I11" s="14"/>
     </row>
@@ -3147,11 +2909,11 @@
       <c r="E12" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="39" t="s">
-        <v>62</v>
+      <c r="F12" s="37" t="s">
+        <v>70</v>
       </c>
       <c r="G12" s="38" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H12" s="18" t="s">
         <v>50</v>
@@ -3171,14 +2933,14 @@
       <c r="E13" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="37" t="s">
-        <v>65</v>
+      <c r="F13" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>60</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I13" s="14"/>
     </row>
@@ -4177,30 +3939,24 @@
     <mergeCell ref="B3:I5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Semanas del curso" error="Las actividades solo se pueden realizar dentro de las 15 semanas que dura el cuatrimestre." sqref="B9:B110" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Semanas del curso" error="Las actividades solo se pueden realizar dentro de las 15 semanas que dura el cuatrimestre." sqref="B9:B110">
       <formula1>1</formula1>
       <formula2>15</formula2>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="G11" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="G12" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="G13" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
-  <drawing r:id="rId5"/>
-  <legacyDrawing r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Hoja3!$F$4:$F$5</xm:f>
           </x14:formula1>
           <xm:sqref>E9:E110</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Hoja3!$D$4:$D$12</xm:f>
           </x14:formula1>
@@ -4213,7 +3969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/ADMON_DEL_PROYECTO/BITACORAS/2018/SEP/BITACORA_EQUIPO3_SEPTIMBRE.xlsx
+++ b/ADMON_DEL_PROYECTO/BITACORAS/2018/SEP/BITACORA_EQUIPO3_SEPTIMBRE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uriel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesus Alacio\Documents\GitHub\DINORIV\ADMON_DEL_PROYECTO\BITACORAS\2018\SEP\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA0F621-4BCB-4C15-915A-BD7D69F13ABD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6705"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6705" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="2" r:id="rId1"/>
@@ -356,7 +357,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -509,7 +510,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,7 +738,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -834,6 +835,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -870,6 +874,39 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -936,44 +973,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1577,11 +1586,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:H15"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1596,54 +1605,54 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="44"/>
     </row>
     <row r="3" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="46"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="47"/>
     </row>
     <row r="4" spans="2:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="49"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="50"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C7" s="8" t="s">
@@ -1716,33 +1725,33 @@
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C13" s="27"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C14" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C15" s="5">
         <v>1</v>
       </c>
-      <c r="D15" s="86" t="s">
+      <c r="D15" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C16" s="5">
@@ -1828,7 +1837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:W34"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="62" zoomScalePageLayoutView="57" workbookViewId="0">
@@ -1849,90 +1858,90 @@
   <sheetData>
     <row r="1" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="57"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="69"/>
     </row>
     <row r="3" spans="2:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="58"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="60"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="72"/>
     </row>
     <row r="4" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="63"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="75"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="72" t="s">
+      <c r="C6" s="78"/>
+      <c r="D6" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
       <c r="O6" s="13" t="s">
         <v>31</v>
       </c>
@@ -1940,78 +1949,78 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="29"/>
       <c r="S6" s="1"/>
-      <c r="T6" s="74">
+      <c r="T6" s="86">
         <v>43374</v>
       </c>
-      <c r="U6" s="74"/>
-      <c r="V6" s="74"/>
-      <c r="W6" s="74"/>
+      <c r="U6" s="86"/>
+      <c r="V6" s="86"/>
+      <c r="W6" s="86"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="73" t="s">
+      <c r="C7" s="78"/>
+      <c r="D7" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="73"/>
-      <c r="S7" s="73"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="85"/>
+      <c r="Q7" s="85"/>
+      <c r="R7" s="85"/>
+      <c r="S7" s="85"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J8" s="31"/>
     </row>
     <row r="9" spans="2:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="67"/>
-      <c r="E9" s="64" t="s">
+      <c r="D9" s="79"/>
+      <c r="E9" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="53" t="s">
+      <c r="F9" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="68" t="s">
+      <c r="G9" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="69"/>
-      <c r="S9" s="69"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="71"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="81"/>
+      <c r="P9" s="81"/>
+      <c r="Q9" s="81"/>
+      <c r="R9" s="81"/>
+      <c r="S9" s="81"/>
+      <c r="T9" s="81"/>
+      <c r="U9" s="83"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="65"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="54"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="66"/>
       <c r="G10" s="32">
         <v>1</v>
       </c>
@@ -2059,14 +2068,14 @@
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="81">
+      <c r="B11" s="54">
         <v>1</v>
       </c>
-      <c r="C11" s="82" t="s">
+      <c r="C11" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="83"/>
-      <c r="E11" s="75" t="s">
+      <c r="D11" s="56"/>
+      <c r="E11" s="59" t="s">
         <v>55</v>
       </c>
       <c r="F11" s="33" t="s">
@@ -2089,10 +2098,10 @@
       <c r="U11" s="4"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="81"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="76"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="60"/>
       <c r="F12" s="33" t="s">
         <v>36</v>
       </c>
@@ -2113,14 +2122,14 @@
       <c r="U12" s="4"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="81">
+      <c r="B13" s="54">
         <v>2</v>
       </c>
-      <c r="C13" s="77" t="s">
+      <c r="C13" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="78"/>
-      <c r="E13" s="75" t="s">
+      <c r="D13" s="62"/>
+      <c r="E13" s="59" t="s">
         <v>64</v>
       </c>
       <c r="F13" s="33" t="s">
@@ -2143,10 +2152,10 @@
       <c r="U13" s="4"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="81"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="76"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="60"/>
       <c r="F14" s="33" t="s">
         <v>36</v>
       </c>
@@ -2167,14 +2176,14 @@
       <c r="U14" s="4"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="81">
+      <c r="B15" s="54">
         <v>3</v>
       </c>
-      <c r="C15" s="77" t="s">
+      <c r="C15" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="78"/>
-      <c r="E15" s="75" t="s">
+      <c r="D15" s="62"/>
+      <c r="E15" s="59" t="s">
         <v>67</v>
       </c>
       <c r="F15" s="33" t="s">
@@ -2197,10 +2206,10 @@
       <c r="U15" s="4"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="81"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="76"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="60"/>
       <c r="F16" s="33" t="s">
         <v>36</v>
       </c>
@@ -2221,14 +2230,14 @@
       <c r="U16" s="4"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B17" s="81">
+      <c r="B17" s="54">
         <v>4</v>
       </c>
-      <c r="C17" s="77" t="s">
+      <c r="C17" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="78"/>
-      <c r="E17" s="75" t="s">
+      <c r="D17" s="62"/>
+      <c r="E17" s="59" t="s">
         <v>62</v>
       </c>
       <c r="F17" s="33" t="s">
@@ -2251,10 +2260,10 @@
       <c r="U17" s="4"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B18" s="81"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="76"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="60"/>
       <c r="F18" s="33" t="s">
         <v>36</v>
       </c>
@@ -2275,14 +2284,14 @@
       <c r="U18" s="4"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B19" s="81">
+      <c r="B19" s="54">
         <v>5</v>
       </c>
-      <c r="C19" s="82" t="s">
+      <c r="C19" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="83"/>
-      <c r="E19" s="75" t="s">
+      <c r="D19" s="56"/>
+      <c r="E19" s="59" t="s">
         <v>63</v>
       </c>
       <c r="F19" s="33" t="s">
@@ -2305,10 +2314,10 @@
       <c r="U19" s="4"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B20" s="81"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="76"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="60"/>
       <c r="F20" s="33" t="s">
         <v>36</v>
       </c>
@@ -2329,12 +2338,12 @@
       <c r="U20" s="4"/>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B21" s="81">
+      <c r="B21" s="54">
         <v>6</v>
       </c>
-      <c r="C21" s="82"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="75"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="59"/>
       <c r="F21" s="33" t="s">
         <v>37</v>
       </c>
@@ -2355,10 +2364,10 @@
       <c r="U21" s="4"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B22" s="81"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="76"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="60"/>
       <c r="F22" s="33" t="s">
         <v>36</v>
       </c>
@@ -2379,12 +2388,12 @@
       <c r="U22" s="4"/>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B23" s="81">
+      <c r="B23" s="54">
         <v>7</v>
       </c>
-      <c r="C23" s="82"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="75"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="59"/>
       <c r="F23" s="33" t="s">
         <v>37</v>
       </c>
@@ -2405,10 +2414,10 @@
       <c r="U23" s="4"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B24" s="81"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="76"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="60"/>
       <c r="F24" s="33" t="s">
         <v>36</v>
       </c>
@@ -2429,12 +2438,12 @@
       <c r="U24" s="4"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B25" s="81">
+      <c r="B25" s="54">
         <v>8</v>
       </c>
-      <c r="C25" s="82"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="75"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="59"/>
       <c r="F25" s="33" t="s">
         <v>37</v>
       </c>
@@ -2455,10 +2464,10 @@
       <c r="U25" s="4"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B26" s="81"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="76"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="60"/>
       <c r="F26" s="33" t="s">
         <v>36</v>
       </c>
@@ -2479,12 +2488,12 @@
       <c r="U26" s="4"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B27" s="81">
+      <c r="B27" s="54">
         <v>9</v>
       </c>
-      <c r="C27" s="82"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="75"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="59"/>
       <c r="F27" s="33" t="s">
         <v>37</v>
       </c>
@@ -2505,10 +2514,10 @@
       <c r="U27" s="4"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B28" s="81"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="76"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="60"/>
       <c r="F28" s="33" t="s">
         <v>36</v>
       </c>
@@ -2529,12 +2538,12 @@
       <c r="U28" s="4"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B29" s="81">
+      <c r="B29" s="54">
         <v>10</v>
       </c>
-      <c r="C29" s="82"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="75"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="59"/>
       <c r="F29" s="33" t="s">
         <v>37</v>
       </c>
@@ -2555,10 +2564,10 @@
       <c r="U29" s="4"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B30" s="81"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="76"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="60"/>
       <c r="F30" s="33" t="s">
         <v>36</v>
       </c>
@@ -2579,12 +2588,12 @@
       <c r="U30" s="4"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B31" s="81">
+      <c r="B31" s="54">
         <v>12</v>
       </c>
-      <c r="C31" s="82"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="75"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="59"/>
       <c r="F31" s="33" t="s">
         <v>37</v>
       </c>
@@ -2605,10 +2614,10 @@
       <c r="U31" s="19"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B32" s="81"/>
-      <c r="C32" s="84"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="76"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="60"/>
       <c r="F32" s="33" t="s">
         <v>36</v>
       </c>
@@ -2629,12 +2638,12 @@
       <c r="U32" s="4"/>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B33" s="81">
+      <c r="B33" s="54">
         <v>13</v>
       </c>
-      <c r="C33" s="82"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="75"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="59"/>
       <c r="F33" s="33" t="s">
         <v>37</v>
       </c>
@@ -2655,10 +2664,10 @@
       <c r="U33" s="4"/>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B34" s="81"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="76"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="60"/>
       <c r="F34" s="33" t="s">
         <v>36</v>
       </c>
@@ -2680,6 +2689,37 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B2:U4"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="G9:U9"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="D7:S7"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C23:D24"/>
     <mergeCell ref="E23:E24"/>
@@ -2696,37 +2736,6 @@
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="C19:D20"/>
     <mergeCell ref="C21:D22"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B2:U4"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="G9:U9"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="D7:S7"/>
-    <mergeCell ref="T6:W6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="55" orientation="portrait" r:id="rId1"/>
@@ -2735,11 +2744,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:K110"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2757,40 +2766,40 @@
   <sheetData>
     <row r="2" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="69"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="58"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="60"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="72"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="2:11" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="61"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="63"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="75"/>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
     </row>
@@ -2840,7 +2849,7 @@
       <c r="F9" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="88" t="s">
         <v>55</v>
       </c>
       <c r="H9" s="18" t="s">
@@ -2864,7 +2873,7 @@
       <c r="F10" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="89" t="s">
         <v>58</v>
       </c>
       <c r="H10" s="18" t="s">
@@ -3939,7 +3948,7 @@
     <mergeCell ref="B3:I5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Semanas del curso" error="Las actividades solo se pueden realizar dentro de las 15 semanas que dura el cuatrimestre." sqref="B9:B110">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Semanas del curso" error="Las actividades solo se pueden realizar dentro de las 15 semanas que dura el cuatrimestre." sqref="B9:B110" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>1</formula1>
       <formula2>15</formula2>
     </dataValidation>
@@ -3950,13 +3959,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
             <xm:f>Hoja3!$F$4:$F$5</xm:f>
           </x14:formula1>
           <xm:sqref>E9:E110</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
           <x14:formula1>
             <xm:f>Hoja3!$D$4:$D$12</xm:f>
           </x14:formula1>
@@ -3969,7 +3978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
